--- a/date_dataset.xlsx
+++ b/date_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,6 +1135,237 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>떡볶이</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>151</v>
+      </c>
+      <c r="E22" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>피자</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>233</v>
+      </c>
+      <c r="E23" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>닭가슴살</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>127</v>
+      </c>
+      <c r="E24" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>김밥</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>158</v>
+      </c>
+      <c r="E25" t="n">
+        <v>63</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>김밥</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>158</v>
+      </c>
+      <c r="E26" t="n">
+        <v>63</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>김밥</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>158</v>
+      </c>
+      <c r="E27" t="n">
+        <v>63</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>샐러드</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>153</v>
+      </c>
+      <c r="E28" t="n">
+        <v>73.42</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="H28" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
